--- a/file_folder/test_folder/modified_geo_ai_ethics_cases.xlsx
+++ b/file_folder/test_folder/modified_geo_ai_ethics_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morning\Desktop\hiwi\heart\paper\file_folder\test_folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B6694D-65E7-4631-AF95-144433A2443A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C23163-DC90-44D3-BB50-D8446D6BD4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20505" yWindow="3030" windowWidth="25515" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4330" yWindow="8150" windowWidth="16200" windowHeight="27970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>privacy violation</t>
   </si>
@@ -145,7 +145,12 @@
     <t>sensitive privacy breach</t>
   </si>
   <si>
+    <t>global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>severity of privacy violation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -520,15 +525,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP91"/>
+  <dimension ref="A1:AQ91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,10 +658,13 @@
         <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -783,8 +791,11 @@
       <c r="AP2">
         <v>0</v>
       </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -911,8 +922,11 @@
       <c r="AP3">
         <v>0</v>
       </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1039,8 +1053,11 @@
       <c r="AP4">
         <v>0</v>
       </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="AP5">
         <v>0</v>
       </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1295,8 +1315,11 @@
       <c r="AP6">
         <v>0</v>
       </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1423,8 +1446,11 @@
       <c r="AP7">
         <v>0</v>
       </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1551,8 +1577,11 @@
       <c r="AP8">
         <v>0</v>
       </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1679,8 +1708,11 @@
       <c r="AP9">
         <v>0</v>
       </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1807,8 +1839,11 @@
       <c r="AP10">
         <v>0</v>
       </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1935,8 +1970,11 @@
       <c r="AP11">
         <v>0</v>
       </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2063,8 +2101,11 @@
       <c r="AP12">
         <v>0</v>
       </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -2191,8 +2232,11 @@
       <c r="AP13">
         <v>0</v>
       </c>
+      <c r="AQ13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -2319,8 +2363,11 @@
       <c r="AP14">
         <v>0</v>
       </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -2447,8 +2494,11 @@
       <c r="AP15">
         <v>1</v>
       </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -2575,8 +2625,11 @@
       <c r="AP16">
         <v>0</v>
       </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -2703,8 +2756,11 @@
       <c r="AP17">
         <v>0</v>
       </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2831,8 +2887,11 @@
       <c r="AP18">
         <v>0</v>
       </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2959,8 +3018,11 @@
       <c r="AP19">
         <v>0</v>
       </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3087,8 +3149,11 @@
       <c r="AP20">
         <v>0</v>
       </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3215,8 +3280,11 @@
       <c r="AP21">
         <v>0</v>
       </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3343,8 +3411,11 @@
       <c r="AP22">
         <v>0</v>
       </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3471,8 +3542,11 @@
       <c r="AP23">
         <v>0</v>
       </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3599,8 +3673,11 @@
       <c r="AP24">
         <v>0</v>
       </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3727,8 +3804,11 @@
       <c r="AP25">
         <v>0</v>
       </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3855,8 +3935,11 @@
       <c r="AP26">
         <v>0</v>
       </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -3983,8 +4066,11 @@
       <c r="AP27">
         <v>0</v>
       </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -4111,8 +4197,11 @@
       <c r="AP28">
         <v>0</v>
       </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -4239,8 +4328,11 @@
       <c r="AP29">
         <v>0</v>
       </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -4367,8 +4459,11 @@
       <c r="AP30">
         <v>0</v>
       </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -4495,8 +4590,11 @@
       <c r="AP31">
         <v>0</v>
       </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0</v>
       </c>
@@ -4623,8 +4721,11 @@
       <c r="AP32">
         <v>0</v>
       </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -4751,8 +4852,11 @@
       <c r="AP33">
         <v>0</v>
       </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -4879,8 +4983,11 @@
       <c r="AP34">
         <v>0</v>
       </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0</v>
       </c>
@@ -5007,8 +5114,11 @@
       <c r="AP35">
         <v>0</v>
       </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0</v>
       </c>
@@ -5135,8 +5245,11 @@
       <c r="AP36">
         <v>0</v>
       </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -5263,8 +5376,11 @@
       <c r="AP37">
         <v>0</v>
       </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -5391,8 +5507,11 @@
       <c r="AP38">
         <v>0</v>
       </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0</v>
       </c>
@@ -5519,8 +5638,11 @@
       <c r="AP39">
         <v>0</v>
       </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0</v>
       </c>
@@ -5647,8 +5769,11 @@
       <c r="AP40">
         <v>0</v>
       </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0</v>
       </c>
@@ -5775,8 +5900,11 @@
       <c r="AP41">
         <v>0</v>
       </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -5903,8 +6031,11 @@
       <c r="AP42">
         <v>0</v>
       </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0</v>
       </c>
@@ -6031,8 +6162,11 @@
       <c r="AP43">
         <v>0</v>
       </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -6159,8 +6293,11 @@
       <c r="AP44">
         <v>0</v>
       </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -6287,8 +6424,11 @@
       <c r="AP45">
         <v>0</v>
       </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0</v>
       </c>
@@ -6415,8 +6555,11 @@
       <c r="AP46">
         <v>0</v>
       </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -6543,8 +6686,11 @@
       <c r="AP47">
         <v>0</v>
       </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0</v>
       </c>
@@ -6671,8 +6817,11 @@
       <c r="AP48">
         <v>0</v>
       </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0</v>
       </c>
@@ -6799,8 +6948,11 @@
       <c r="AP49">
         <v>0</v>
       </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0</v>
       </c>
@@ -6927,8 +7079,11 @@
       <c r="AP50">
         <v>0</v>
       </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0</v>
       </c>
@@ -7055,8 +7210,11 @@
       <c r="AP51">
         <v>0</v>
       </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -7183,8 +7341,11 @@
       <c r="AP52">
         <v>0</v>
       </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -7311,8 +7472,11 @@
       <c r="AP53">
         <v>0</v>
       </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0</v>
       </c>
@@ -7439,8 +7603,11 @@
       <c r="AP54">
         <v>0</v>
       </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -7567,8 +7734,11 @@
       <c r="AP55">
         <v>0</v>
       </c>
+      <c r="AQ55">
+        <v>0</v>
+      </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0</v>
       </c>
@@ -7695,8 +7865,11 @@
       <c r="AP56">
         <v>0</v>
       </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0</v>
       </c>
@@ -7823,8 +7996,11 @@
       <c r="AP57">
         <v>0</v>
       </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0</v>
       </c>
@@ -7951,8 +8127,11 @@
       <c r="AP58">
         <v>0</v>
       </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -8079,8 +8258,11 @@
       <c r="AP59">
         <v>0</v>
       </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -8207,8 +8389,11 @@
       <c r="AP60">
         <v>0</v>
       </c>
+      <c r="AQ60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -8335,8 +8520,11 @@
       <c r="AP61">
         <v>0</v>
       </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0</v>
       </c>
@@ -8463,8 +8651,11 @@
       <c r="AP62">
         <v>0</v>
       </c>
+      <c r="AQ62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0</v>
       </c>
@@ -8591,8 +8782,11 @@
       <c r="AP63">
         <v>0</v>
       </c>
+      <c r="AQ63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -8719,8 +8913,11 @@
       <c r="AP64">
         <v>3</v>
       </c>
+      <c r="AQ64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0</v>
       </c>
@@ -8847,8 +9044,11 @@
       <c r="AP65">
         <v>0</v>
       </c>
+      <c r="AQ65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -8975,8 +9175,11 @@
       <c r="AP66">
         <v>0</v>
       </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -9103,8 +9306,11 @@
       <c r="AP67">
         <v>0</v>
       </c>
+      <c r="AQ67">
+        <v>0</v>
+      </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -9231,8 +9437,11 @@
       <c r="AP68">
         <v>1</v>
       </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -9359,8 +9568,11 @@
       <c r="AP69">
         <v>0</v>
       </c>
+      <c r="AQ69">
+        <v>0</v>
+      </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -9487,8 +9699,11 @@
       <c r="AP70">
         <v>0</v>
       </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -9615,8 +9830,11 @@
       <c r="AP71">
         <v>0</v>
       </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -9743,8 +9961,11 @@
       <c r="AP72">
         <v>0</v>
       </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -9871,8 +10092,11 @@
       <c r="AP73">
         <v>0</v>
       </c>
+      <c r="AQ73">
+        <v>0</v>
+      </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -9999,8 +10223,11 @@
       <c r="AP74">
         <v>0</v>
       </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -10127,8 +10354,11 @@
       <c r="AP75">
         <v>0</v>
       </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -10255,8 +10485,11 @@
       <c r="AP76">
         <v>0</v>
       </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -10383,8 +10616,11 @@
       <c r="AP77">
         <v>0</v>
       </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -10511,8 +10747,11 @@
       <c r="AP78">
         <v>0</v>
       </c>
+      <c r="AQ78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -10639,8 +10878,11 @@
       <c r="AP79">
         <v>3</v>
       </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -10767,8 +11009,11 @@
       <c r="AP80">
         <v>3</v>
       </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -10895,8 +11140,11 @@
       <c r="AP81">
         <v>0</v>
       </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>0</v>
       </c>
@@ -11023,8 +11271,11 @@
       <c r="AP82">
         <v>0</v>
       </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -11151,8 +11402,11 @@
       <c r="AP83">
         <v>3</v>
       </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -11279,8 +11533,11 @@
       <c r="AP84">
         <v>4</v>
       </c>
+      <c r="AQ84">
+        <v>0</v>
+      </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -11407,8 +11664,11 @@
       <c r="AP85">
         <v>0</v>
       </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>0</v>
       </c>
@@ -11535,8 +11795,11 @@
       <c r="AP86">
         <v>0</v>
       </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -11663,8 +11926,11 @@
       <c r="AP87">
         <v>4</v>
       </c>
+      <c r="AQ87">
+        <v>1</v>
+      </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0</v>
       </c>
@@ -11791,8 +12057,11 @@
       <c r="AP88">
         <v>0</v>
       </c>
+      <c r="AQ88">
+        <v>0</v>
+      </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -11919,8 +12188,11 @@
       <c r="AP89">
         <v>0</v>
       </c>
+      <c r="AQ89">
+        <v>0</v>
+      </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0</v>
       </c>
@@ -12047,8 +12319,11 @@
       <c r="AP90">
         <v>0</v>
       </c>
+      <c r="AQ90">
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -12174,6 +12449,9 @@
       </c>
       <c r="AP91">
         <v>4</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
